--- a/apoio.xlsx
+++ b/apoio.xlsx
@@ -21,6 +21,14 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>https://www.automation.com/library/articles-white-papers/hmi-and-scada-software-technologies/web-based-hmi-an-emerging-trend</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -338,10 +346,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/apoio.xlsx
+++ b/apoio.xlsx
@@ -24,22 +24,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>https://www.automation.com/library/articles-white-papers/hmi-and-scada-software-technologies/web-based-hmi-an-emerging-trend</t>
+  </si>
+  <si>
+    <t>https://link.springer.com/article/10.1007%2Fs10111-015-0352-0</t>
+  </si>
+  <si>
+    <t>Link</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Lei Wu</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -62,8 +80,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -344,20 +365,40 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="125.140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>